--- a/England 2026/prev_tbl.xlsx
+++ b/England 2026/prev_tbl.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,271 +91,271 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>40.872554086638004</v>
+        <v>37.683337917498449</v>
       </c>
       <c r="B1" s="0">
-        <v>38.43766181693136</v>
+        <v>35.400571542032573</v>
       </c>
       <c r="C1" s="0">
-        <v>35.976620970065312</v>
+        <v>33.103073730970891</v>
       </c>
       <c r="D1" s="0">
-        <v>33.565244618504586</v>
+        <v>30.861929556563393</v>
       </c>
       <c r="E1" s="0">
-        <v>31.473904670803133</v>
+        <v>28.928915608686307</v>
       </c>
       <c r="F1" s="0">
-        <v>29.836865431113235</v>
+        <v>27.423305541630615</v>
       </c>
       <c r="G1" s="0">
-        <v>28.377819701122913</v>
+        <v>26.063131162241565</v>
       </c>
       <c r="H1" s="0">
-        <v>27.43406174055001</v>
+        <v>25.205593701152637</v>
       </c>
       <c r="I1" s="0">
-        <v>27.88262141718684</v>
+        <v>25.801989711198452</v>
       </c>
       <c r="J1" s="0">
-        <v>29.58408386692367</v>
+        <v>27.671431132758489</v>
       </c>
       <c r="K1" s="0">
-        <v>30.840204988194199</v>
+        <v>28.9843831549959</v>
       </c>
       <c r="L1" s="0">
-        <v>31.050654175000563</v>
+        <v>29.095680626666713</v>
       </c>
       <c r="M1" s="0">
-        <v>31.13356700217944</v>
+        <v>29.096776277998686</v>
       </c>
       <c r="N1" s="0">
-        <v>31.175186981866691</v>
+        <v>29.078220923189342</v>
       </c>
       <c r="O1" s="0">
-        <v>31.185454096312711</v>
+        <v>29.041579672365543</v>
       </c>
       <c r="P1" s="0">
-        <v>31.173910378275181</v>
+        <v>28.991876167713293</v>
       </c>
       <c r="Q1" s="0">
-        <v>31.148112382701221</v>
+        <v>28.934003924808799</v>
       </c>
       <c r="R1" s="0">
-        <v>31.113685978073857</v>
+        <v>28.871864145054989</v>
       </c>
       <c r="S1" s="0">
-        <v>31.074670158656044</v>
+        <v>28.808305136318172</v>
       </c>
       <c r="T1" s="0">
-        <v>31.033875478336174</v>
+        <v>28.745294758236579</v>
       </c>
       <c r="U1" s="0">
-        <v>30.993188366670367</v>
+        <v>28.684114734631574</v>
       </c>
       <c r="V1" s="0">
-        <v>30.953819443539455</v>
+        <v>28.625542688082305</v>
       </c>
       <c r="W1" s="0">
-        <v>30.91649289620392</v>
+        <v>28.569993625893972</v>
       </c>
       <c r="X1" s="0">
-        <v>30.881590358607941</v>
+        <v>28.517629514719026</v>
       </c>
       <c r="Y1" s="0">
-        <v>30.849259769612988</v>
+        <v>28.468444443006416</v>
       </c>
       <c r="Z1" s="0">
-        <v>30.819494210735371</v>
+        <v>28.422324334331542</v>
       </c>
       <c r="AA1" s="0">
-        <v>30.792188359634285</v>
+        <v>28.379090486244511</v>
       </c>
       <c r="AB1" s="0">
-        <v>30.76717882039188</v>
+        <v>28.338530361507647</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>49.183402431457409</v>
+        <v>46.351282985848357</v>
       </c>
       <c r="B2" s="0">
-        <v>46.570549784777384</v>
+        <v>43.764925173661794</v>
       </c>
       <c r="C2" s="0">
-        <v>43.88465824842109</v>
+        <v>41.123488317495223</v>
       </c>
       <c r="D2" s="0">
-        <v>41.20888822405874</v>
+        <v>38.510576210699163</v>
       </c>
       <c r="E2" s="0">
-        <v>38.830695302346996</v>
+        <v>36.205261583571499</v>
       </c>
       <c r="F2" s="0">
-        <v>36.908102291564838</v>
+        <v>34.354622197488254</v>
       </c>
       <c r="G2" s="0">
-        <v>35.167775912987288</v>
+        <v>32.675601816306042</v>
       </c>
       <c r="H2" s="0">
-        <v>33.952432071429953</v>
+        <v>31.527029181394987</v>
       </c>
       <c r="I2" s="0">
-        <v>34.240968730004724</v>
+        <v>31.928556550407951</v>
       </c>
       <c r="J2" s="0">
-        <v>35.981644453177864</v>
+        <v>33.77375391046025</v>
       </c>
       <c r="K2" s="0">
-        <v>37.416258318344987</v>
+        <v>35.166748919545455</v>
       </c>
       <c r="L2" s="0">
-        <v>37.528077338803236</v>
+        <v>35.336602132248892</v>
       </c>
       <c r="M2" s="0">
-        <v>37.535062996737239</v>
+        <v>35.37354725197752</v>
       </c>
       <c r="N2" s="0">
-        <v>37.516593014125974</v>
+        <v>35.37762810200293</v>
       </c>
       <c r="O2" s="0">
-        <v>37.494945470018635</v>
+        <v>35.355306374323369</v>
       </c>
       <c r="P2" s="0">
-        <v>37.509182726261571</v>
+        <v>35.314145998108522</v>
       </c>
       <c r="Q2" s="0">
-        <v>37.500705886525509</v>
+        <v>35.260666772545214</v>
       </c>
       <c r="R2" s="0">
-        <v>37.477010531021264</v>
+        <v>35.199925040662364</v>
       </c>
       <c r="S2" s="0">
-        <v>37.443636992389287</v>
+        <v>35.135648461718432</v>
       </c>
       <c r="T2" s="0">
-        <v>37.404604364264607</v>
+        <v>35.070480901808324</v>
       </c>
       <c r="U2" s="0">
-        <v>37.362770750052903</v>
+        <v>35.006226540150791</v>
       </c>
       <c r="V2" s="0">
-        <v>37.320123352464087</v>
+        <v>34.944058268021095</v>
       </c>
       <c r="W2" s="0">
-        <v>37.278001769665707</v>
+        <v>34.884687098929128</v>
       </c>
       <c r="X2" s="0">
-        <v>37.23727087991481</v>
+        <v>34.828492636871324</v>
       </c>
       <c r="Y2" s="0">
-        <v>37.198453328562877</v>
+        <v>34.775621629845709</v>
       </c>
       <c r="Z2" s="0">
-        <v>37.161828976801189</v>
+        <v>34.726063534083799</v>
       </c>
       <c r="AA2" s="0">
-        <v>37.12750803401503</v>
+        <v>34.679705402262009</v>
       </c>
       <c r="AB2" s="0">
-        <v>37.095486014160493</v>
+        <v>34.636371452857148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>67.749216888595555</v>
+        <v>56.428959806049726</v>
       </c>
       <c r="B3" s="0">
-        <v>64.847520064639298</v>
+        <v>53.606561742358551</v>
       </c>
       <c r="C3" s="0">
-        <v>61.7927956128853</v>
+        <v>50.680813812558284</v>
       </c>
       <c r="D3" s="0">
-        <v>58.678480244564689</v>
+        <v>47.744003987371933</v>
       </c>
       <c r="E3" s="0">
-        <v>55.790058848714153</v>
+        <v>45.090496277587995</v>
       </c>
       <c r="F3" s="0">
-        <v>53.306451851318258</v>
+        <v>42.889078061999882</v>
       </c>
       <c r="G3" s="0">
-        <v>50.997547755721989</v>
+        <v>40.863186783620286</v>
       </c>
       <c r="H3" s="0">
-        <v>49.18680524046146</v>
+        <v>39.37556043289932</v>
       </c>
       <c r="I3" s="0">
-        <v>48.818985038749489</v>
+        <v>39.533977733903953</v>
       </c>
       <c r="J3" s="0">
-        <v>49.892425513627138</v>
+        <v>41.300002503869308</v>
       </c>
       <c r="K3" s="0">
-        <v>50.795212376069358</v>
+        <v>42.760197151347207</v>
       </c>
       <c r="L3" s="0">
-        <v>50.75972414013193</v>
+        <v>42.991787537349133</v>
       </c>
       <c r="M3" s="0">
-        <v>50.631770892138903</v>
+        <v>43.06580850555843</v>
       </c>
       <c r="N3" s="0">
-        <v>50.492213337995146</v>
+        <v>43.089833316125017</v>
       </c>
       <c r="O3" s="0">
-        <v>50.346137138531574</v>
+        <v>43.07543411681101</v>
       </c>
       <c r="P3" s="0">
-        <v>50.198203597103472</v>
+        <v>43.033252928939937</v>
       </c>
       <c r="Q3" s="0">
-        <v>50.052043318981568</v>
+        <v>42.971983960253354</v>
       </c>
       <c r="R3" s="0">
-        <v>49.910265028616351</v>
+        <v>42.898351859409047</v>
       </c>
       <c r="S3" s="0">
-        <v>49.774619830756585</v>
+        <v>42.817404103492677</v>
       </c>
       <c r="T3" s="0">
-        <v>49.646184571920756</v>
+        <v>42.732840578666057</v>
       </c>
       <c r="U3" s="0">
-        <v>49.525525348402482</v>
+        <v>42.647310022816662</v>
       </c>
       <c r="V3" s="0">
-        <v>49.412834796944836</v>
+        <v>42.562658412352867</v>
       </c>
       <c r="W3" s="0">
-        <v>49.308039374242739</v>
+        <v>42.480128570980064</v>
       </c>
       <c r="X3" s="0">
-        <v>49.210883093528842</v>
+        <v>42.400514372567699</v>
       </c>
       <c r="Y3" s="0">
-        <v>49.120991430102031</v>
+        <v>42.324281678562635</v>
       </c>
       <c r="Z3" s="0">
-        <v>49.037918420031083</v>
+        <v>42.25166056000154</v>
       </c>
       <c r="AA3" s="0">
-        <v>48.961181359268899</v>
+        <v>42.182715130005249</v>
       </c>
       <c r="AB3" s="0">
-        <v>48.890285212923018</v>
+        <v>42.117395370478178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>40.872554086638004</v>
+        <v>30.861929429879801</v>
       </c>
       <c r="B4" s="0">
-        <v>38.43766181693136</v>
+        <v>38.510576265421427</v>
       </c>
       <c r="C4" s="0">
-        <v>35.976620970065312</v>
+        <v>47.74400348287552</v>
       </c>
       <c r="D4" s="0">
         <v>33.565244618504586</v>
@@ -435,13 +435,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>49.183402431457409</v>
+        <v>28.928915489756044</v>
       </c>
       <c r="B5" s="0">
-        <v>46.570549784777384</v>
+        <v>36.205261741629798</v>
       </c>
       <c r="C5" s="0">
-        <v>43.88465824842109</v>
+        <v>45.090495707584481</v>
       </c>
       <c r="D5" s="0">
         <v>41.20888822405874</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>67.749216888595555</v>
+        <v>27.423305429685996</v>
       </c>
       <c r="B6" s="0">
-        <v>64.847520064639298</v>
+        <v>34.354622321211664</v>
       </c>
       <c r="C6" s="0">
-        <v>61.7927956128853</v>
+        <v>42.88907753811975</v>
       </c>
       <c r="D6" s="0">
         <v>58.678480244564689</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>40.872554086638004</v>
+        <v>26.063135021314505</v>
       </c>
       <c r="B7" s="0">
-        <v>38.43766181693136</v>
+        <v>32.675602182873881</v>
       </c>
       <c r="C7" s="0">
-        <v>35.976620970065312</v>
+        <v>40.863183144477127</v>
       </c>
       <c r="D7" s="0">
         <v>33.565244618504586</v>
@@ -693,13 +693,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>49.183402431457409</v>
+        <v>25.205596003577771</v>
       </c>
       <c r="B8" s="0">
-        <v>46.570549784777384</v>
+        <v>31.527025856007445</v>
       </c>
       <c r="C8" s="0">
-        <v>43.88465824842109</v>
+        <v>39.375561158767553</v>
       </c>
       <c r="D8" s="0">
         <v>41.20888822405874</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>67.749216888595555</v>
+        <v>25.801991580233615</v>
       </c>
       <c r="B9" s="0">
-        <v>64.847520064639298</v>
+        <v>31.928556298181526</v>
       </c>
       <c r="C9" s="0">
-        <v>61.7927956128853</v>
+        <v>39.533977179949865</v>
       </c>
       <c r="D9" s="0">
         <v>58.678480244564689</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>40.872554086638004</v>
+        <v>27.671435541984888</v>
       </c>
       <c r="B10" s="0">
-        <v>38.43766181693136</v>
+        <v>33.773752358632855</v>
       </c>
       <c r="C10" s="0">
-        <v>35.976620970065312</v>
+        <v>41.299997487531783</v>
       </c>
       <c r="D10" s="0">
         <v>33.565244618504586</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>49.183402431457409</v>
+        <v>28.984386640678054</v>
       </c>
       <c r="B11" s="0">
-        <v>46.570549784777384</v>
+        <v>35.166744711520202</v>
       </c>
       <c r="C11" s="0">
-        <v>43.88465824842109</v>
+        <v>42.760193069216754</v>
       </c>
       <c r="D11" s="0">
         <v>41.20888822405874</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.749216888595555</v>
+        <v>29.095680947433046</v>
       </c>
       <c r="B12" s="0">
-        <v>64.847520064639298</v>
+        <v>35.336598450859526</v>
       </c>
       <c r="C12" s="0">
-        <v>61.7927956128853</v>
+        <v>42.991783101216051</v>
       </c>
       <c r="D12" s="0">
         <v>58.678480244564689</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>40.872554086638004</v>
+        <v>29.096777439231165</v>
       </c>
       <c r="B13" s="0">
-        <v>38.43766181693136</v>
+        <v>35.373543769361852</v>
       </c>
       <c r="C13" s="0">
-        <v>35.976620970065312</v>
+        <v>43.065803978270253</v>
       </c>
       <c r="D13" s="0">
         <v>33.565244618504586</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>49.183402431457409</v>
+        <v>29.078221474800962</v>
       </c>
       <c r="B14" s="0">
-        <v>46.570549784777384</v>
+        <v>35.377624874790811</v>
       </c>
       <c r="C14" s="0">
-        <v>43.88465824842109</v>
+        <v>43.089828863383588</v>
       </c>
       <c r="D14" s="0">
         <v>41.20888822405874</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>67.749216888595555</v>
+        <v>29.041580651196657</v>
       </c>
       <c r="B15" s="0">
-        <v>64.847520064639298</v>
+        <v>35.355303439080238</v>
       </c>
       <c r="C15" s="0">
-        <v>61.7927956128853</v>
+        <v>43.075429852859138</v>
       </c>
       <c r="D15" s="0">
         <v>58.678480244564689</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>40.872554086638004</v>
+        <v>28.991876462227889</v>
       </c>
       <c r="B16" s="0">
-        <v>38.43766181693136</v>
+        <v>35.314143369224325</v>
       </c>
       <c r="C16" s="0">
-        <v>35.976620970065312</v>
+        <v>43.03324892534436</v>
       </c>
       <c r="D16" s="0">
         <v>33.565244618504586</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>49.183402431457409</v>
+        <v>28.93400420653397</v>
       </c>
       <c r="B17" s="0">
-        <v>46.570549784777384</v>
+        <v>35.260664447828518</v>
       </c>
       <c r="C17" s="0">
-        <v>43.88465824842109</v>
+        <v>42.971980256157678</v>
       </c>
       <c r="D17" s="0">
         <v>41.20888822405874</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>67.749216888595555</v>
+        <v>28.871864422532443</v>
       </c>
       <c r="B18" s="0">
-        <v>64.847520064639298</v>
+        <v>35.199923006784616</v>
       </c>
       <c r="C18" s="0">
-        <v>61.7927956128853</v>
+        <v>42.898348470474737</v>
       </c>
       <c r="D18" s="0">
         <v>58.678480244564689</v>
@@ -1635,6 +1635,116 @@
       </c>
       <c r="AB18" s="0">
         <v>13.993959499691625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>28.808305382376663</v>
+      </c>
+      <c r="B19" s="0">
+        <v>35.135646698470779</v>
+      </c>
+      <c r="C19" s="0">
+        <v>42.817401029060207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>28.745294945769999</v>
+      </c>
+      <c r="B20" s="0">
+        <v>35.070479385286113</v>
+      </c>
+      <c r="C20" s="0">
+        <v>42.732837807188076</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>28.684114919604088</v>
+      </c>
+      <c r="B21" s="0">
+        <v>35.006225244995754</v>
+      </c>
+      <c r="C21" s="0">
+        <v>42.647307535917015</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>28.625542815374679</v>
+      </c>
+      <c r="B22" s="0">
+        <v>34.944057168944482</v>
+      </c>
+      <c r="C22" s="0">
+        <v>42.562656187766414</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>28.569993685115513</v>
+      </c>
+      <c r="B23" s="0">
+        <v>34.884686171689438</v>
+      </c>
+      <c r="C23" s="0">
+        <v>42.480126584640438</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>28.517629581714637</v>
+      </c>
+      <c r="B24" s="0">
+        <v>34.828491858897308</v>
+      </c>
+      <c r="C24" s="0">
+        <v>42.400512600082422</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>28.468444464080268</v>
+      </c>
+      <c r="B25" s="0">
+        <v>34.775620980538598</v>
+      </c>
+      <c r="C25" s="0">
+        <v>42.324280096189988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>28.42232432200688</v>
+      </c>
+      <c r="B26" s="0">
+        <v>34.72606299496259</v>
+      </c>
+      <c r="C26" s="0">
+        <v>42.251659145246961</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>28.379090443365879</v>
+      </c>
+      <c r="B27" s="0">
+        <v>34.679704956925726</v>
+      </c>
+      <c r="C27" s="0">
+        <v>42.182713862028201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>28.33853029512569</v>
+      </c>
+      <c r="B28" s="0">
+        <v>34.636371086930957</v>
+      </c>
+      <c r="C28" s="0">
+        <v>42.117394230249033</v>
       </c>
     </row>
   </sheetData>
